--- a/train/results.xlsx
+++ b/train/results.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Antoine/training_ML/transformer/WMT_en_fr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Antoine/training_ML/transformer/train/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD662F3-4F01-3D4E-A707-D6495FA73C88}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273FC70C-0F2C-FE44-86A1-04B427D4D3FB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15660" windowHeight="16000" xr2:uid="{E5EF0A20-FAE9-8841-B3FF-3D9ABDE29D44}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{E5EF0A20-FAE9-8841-B3FF-3D9ABDE29D44}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Hardware</t>
   </si>
@@ -93,10 +93,16 @@
     <t>learning rate</t>
   </si>
   <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>X</t>
+    <t>tensor2tensor</t>
+  </si>
+  <si>
+    <t>nb hours</t>
+  </si>
+  <si>
+    <t>7h30</t>
+  </si>
+  <si>
+    <t>23h</t>
   </si>
 </sst>
 </file>
@@ -118,7 +124,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,19 +139,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -162,60 +156,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -525,19 +476,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DB81ED-E744-E848-B570-5B80FBCE336F}">
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="15" max="16" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="16" max="17" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -551,493 +502,185 @@
         <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
+    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2">
+        <f>480/H2</f>
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2">
-        <v>100</v>
-      </c>
       <c r="H2" s="2">
+        <v>100000</v>
+      </c>
+      <c r="I2" s="2">
         <v>1000000</v>
       </c>
-      <c r="I2" s="2">
-        <v>662</v>
-      </c>
       <c r="J2" s="2">
-        <v>0.08</v>
+        <v>32215</v>
       </c>
       <c r="K2" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L2" s="2">
         <v>2</v>
       </c>
       <c r="M2" s="2">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="N2" s="2">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="O2" s="2">
-        <v>7000</v>
-      </c>
-      <c r="P2" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="P2" s="2">
+        <f>((H2*S2)/U2)*T2</f>
+        <v>450000</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="2">
-        <v>10</v>
-      </c>
       <c r="R2" s="2">
+        <v>16000</v>
+      </c>
+      <c r="S2" s="2">
         <v>0.8</v>
       </c>
-      <c r="S2" s="2">
-        <v>1000</v>
-      </c>
       <c r="T2" s="2">
-        <v>10</v>
+        <v>450</v>
       </c>
       <c r="U2" s="2">
-        <v>10</v>
+        <v>80</v>
+      </c>
+      <c r="V2" s="2">
+        <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0.61</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
+    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L3" s="3">
+        <v>6</v>
+      </c>
+      <c r="M3" s="2">
+        <v>4</v>
+      </c>
+      <c r="N3" s="2">
+        <v>256</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1024</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="2">
+        <v>16000</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="U3" s="3">
+        <v>40</v>
+      </c>
+      <c r="V3" s="3">
         <v>100</v>
       </c>
-      <c r="H3" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="I3" s="2">
-        <v>662</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2">
-        <v>2</v>
-      </c>
-      <c r="M3" s="2">
-        <v>32</v>
-      </c>
-      <c r="N3" s="2">
-        <v>64</v>
-      </c>
-      <c r="O3" s="4">
-        <v>2100</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>10</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="S3" s="4">
-        <v>300</v>
-      </c>
-      <c r="T3" s="2">
-        <v>10</v>
-      </c>
-      <c r="U3" s="2">
-        <v>10</v>
-      </c>
     </row>
-    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="C4" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <f>226/G4</f>
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1000</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="I4" s="4">
-        <v>3188</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2">
-        <v>2</v>
-      </c>
-      <c r="M4" s="2">
-        <v>32</v>
-      </c>
-      <c r="N4" s="2">
-        <v>64</v>
-      </c>
-      <c r="O4" s="4">
-        <v>18300</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>10</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="S4" s="2">
-        <v>300</v>
-      </c>
-      <c r="T4" s="2">
-        <v>10</v>
-      </c>
-      <c r="U4" s="2">
-        <v>10</v>
-      </c>
+    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
     </row>
-    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>0.64</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="D5" s="5">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4">
-        <f>2470/G5</f>
-        <v>0.247</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="4">
-        <v>10000</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="I5" s="4">
-        <v>15786</v>
-      </c>
-      <c r="J5" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2">
-        <v>2</v>
-      </c>
-      <c r="M5" s="2">
-        <v>32</v>
-      </c>
-      <c r="N5" s="2">
-        <v>64</v>
-      </c>
-      <c r="O5" s="4">
-        <v>36000</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>10</v>
-      </c>
-      <c r="R5" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="S5" s="2">
-        <v>300</v>
-      </c>
-      <c r="T5" s="4">
-        <v>50</v>
-      </c>
-      <c r="U5" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2">
-        <f>2470/G6</f>
-        <v>0.247</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="2">
-        <v>10000</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="I6" s="2">
-        <v>15786</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1</v>
-      </c>
-      <c r="L6" s="2">
-        <v>2</v>
-      </c>
-      <c r="M6" s="2">
-        <v>32</v>
-      </c>
-      <c r="N6" s="2">
-        <v>64</v>
-      </c>
-      <c r="O6" s="2">
-        <v>36000</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="S6" s="2">
-        <v>300</v>
-      </c>
-      <c r="T6" s="2">
-        <v>50</v>
-      </c>
-      <c r="U6" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.27984678463173701</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1.6</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="2">
-        <v>100</v>
-      </c>
-      <c r="H14">
-        <v>1000000</v>
-      </c>
-      <c r="I14" s="2">
-        <v>662</v>
-      </c>
-      <c r="J14" s="4">
-        <v>4.2</v>
-      </c>
-      <c r="K14" s="6">
-        <v>2</v>
-      </c>
-      <c r="L14" s="6">
-        <v>4</v>
-      </c>
-      <c r="M14" s="6">
-        <v>256</v>
-      </c>
-      <c r="N14" s="6">
-        <v>1024</v>
-      </c>
-      <c r="O14" s="4">
-        <v>800</v>
-      </c>
-      <c r="P14" s="4"/>
-      <c r="Q14">
-        <v>10</v>
-      </c>
-      <c r="R14" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="S14" s="4">
-        <v>100</v>
-      </c>
-      <c r="T14" s="4">
-        <v>10</v>
-      </c>
-      <c r="U14" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>0.17</v>
-      </c>
-      <c r="B15" s="2">
-        <v>7.4702219832489397E-2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2.7742060003050999E-2</v>
-      </c>
-      <c r="D15" s="2">
-        <v>8.6</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="J15" s="2">
-        <v>6</v>
-      </c>
-      <c r="K15" s="2">
-        <v>2</v>
-      </c>
-      <c r="L15" s="2">
-        <v>4</v>
-      </c>
-      <c r="M15" s="2">
-        <v>256</v>
-      </c>
-      <c r="N15" s="2">
-        <v>1024</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>10</v>
-      </c>
-      <c r="R15" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="S15" s="2">
-        <v>100</v>
-      </c>
-      <c r="T15" s="2">
-        <v>30</v>
-      </c>
-      <c r="U15" s="2">
-        <v>150</v>
-      </c>
-    </row>
+    <row r="15" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/train/results.xlsx
+++ b/train/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Antoine/training_ML/transformer/train/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273FC70C-0F2C-FE44-86A1-04B427D4D3FB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C49EEF-E344-4E45-8E6C-C0B6899AD9EB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{E5EF0A20-FAE9-8841-B3FF-3D9ABDE29D44}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Hardware</t>
   </si>
@@ -69,9 +69,6 @@
     <t>AWS P3</t>
   </si>
   <si>
-    <t>Max memory taken(GB)</t>
-  </si>
-  <si>
     <t>BLEU TRAIN</t>
   </si>
   <si>
@@ -103,6 +100,18 @@
   </si>
   <si>
     <t>23h</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>europarl</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>weights_100_000</t>
   </si>
 </sst>
 </file>
@@ -476,211 +485,221 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DB81ED-E744-E848-B570-5B80FBCE336F}">
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
     <col min="16" max="17" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="H2" s="2">
+        <f>480/B2</f>
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K2" s="2">
+        <v>32215</v>
+      </c>
+      <c r="L2" s="2">
+        <v>12</v>
+      </c>
+      <c r="M2" s="2">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N2" s="2">
         <v>4</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="O2" s="2">
+        <v>256</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1024</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>((B2*T2)/V2)*U2</f>
+        <v>450000</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="2">
+        <v>16000</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="U2" s="2">
+        <v>450</v>
+      </c>
+      <c r="V2" s="2">
+        <v>80</v>
+      </c>
+      <c r="W2" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M3" s="3">
         <v>6</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="N3" s="2">
+        <v>4</v>
+      </c>
+      <c r="O3" s="2">
+        <v>256</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1024</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>11</v>
+      <c r="S3" s="2">
+        <v>16000</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="V3" s="3">
+        <v>40</v>
+      </c>
+      <c r="W3" s="3">
+        <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>0.19</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.91</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2">
-        <f>480/H2</f>
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2">
-        <v>100000</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="J2" s="2">
-        <v>32215</v>
-      </c>
-      <c r="K2" s="2">
-        <v>12</v>
-      </c>
-      <c r="L2" s="2">
-        <v>2</v>
-      </c>
-      <c r="M2" s="2">
-        <v>4</v>
-      </c>
-      <c r="N2" s="2">
-        <v>256</v>
-      </c>
-      <c r="O2" s="2">
-        <v>1024</v>
-      </c>
-      <c r="P2" s="2">
-        <f>((H2*S2)/U2)*T2</f>
-        <v>450000</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="2">
-        <v>16000</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="T2" s="2">
-        <v>450</v>
-      </c>
-      <c r="U2" s="2">
-        <v>80</v>
-      </c>
-      <c r="V2" s="2">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="L3" s="3">
-        <v>6</v>
-      </c>
-      <c r="M3" s="2">
-        <v>4</v>
-      </c>
-      <c r="N3" s="2">
-        <v>256</v>
-      </c>
-      <c r="O3" s="2">
-        <v>1024</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" s="2">
-        <v>16000</v>
-      </c>
-      <c r="S3" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="U3" s="3">
-        <v>40</v>
-      </c>
-      <c r="V3" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/train/results.xlsx
+++ b/train/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Antoine/training_ML/transformer/train/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C49EEF-E344-4E45-8E6C-C0B6899AD9EB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A77E63-6F5E-0545-8801-6478F3CBA55A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{E5EF0A20-FAE9-8841-B3FF-3D9ABDE29D44}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Hardware</t>
   </si>
@@ -106,12 +106,6 @@
   </si>
   <si>
     <t>europarl</t>
-  </si>
-  <si>
-    <t>filename</t>
-  </si>
-  <si>
-    <t>weights_100_000</t>
   </si>
 </sst>
 </file>
@@ -485,20 +479,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DB81ED-E744-E848-B570-5B80FBCE336F}">
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="16" max="17" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="15" max="16" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -506,200 +499,194 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="W1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="2">
         <v>100000</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
+      <c r="C2" s="2">
+        <v>0.19</v>
       </c>
       <c r="D2" s="2">
-        <v>0.19</v>
+        <v>0.91</v>
       </c>
       <c r="E2" s="2">
-        <v>0.91</v>
-      </c>
-      <c r="F2" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="2">
+      <c r="G2" s="2">
         <f>480/B2</f>
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="I2" s="2">
+        <v>1000000</v>
+      </c>
       <c r="J2" s="2">
-        <v>1000000</v>
+        <v>32215</v>
       </c>
       <c r="K2" s="2">
-        <v>32215</v>
+        <v>12</v>
       </c>
       <c r="L2" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M2" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N2" s="2">
-        <v>4</v>
+        <v>256</v>
       </c>
       <c r="O2" s="2">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="P2" s="2">
-        <v>1024</v>
-      </c>
-      <c r="Q2" s="2">
-        <f>((B2*T2)/V2)*U2</f>
+        <f>((B2*S2)/U2)*T2</f>
         <v>450000</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="R2" s="2">
+        <v>16000</v>
+      </c>
       <c r="S2" s="2">
-        <v>16000</v>
+        <v>0.8</v>
       </c>
       <c r="T2" s="2">
-        <v>0.8</v>
+        <v>450</v>
       </c>
       <c r="U2" s="2">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="V2" s="2">
-        <v>80</v>
-      </c>
-      <c r="W2" s="2">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3">
         <v>1000000</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="2">
+      <c r="I3" s="2">
         <v>1000000</v>
       </c>
-      <c r="M3" s="3">
+      <c r="L3" s="3">
         <v>6</v>
       </c>
+      <c r="M3" s="2">
+        <v>4</v>
+      </c>
       <c r="N3" s="2">
-        <v>4</v>
+        <v>256</v>
       </c>
       <c r="O3" s="2">
-        <v>256</v>
-      </c>
-      <c r="P3" s="2">
         <v>1024</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="R3" s="2">
+        <v>16000</v>
+      </c>
       <c r="S3" s="2">
-        <v>16000</v>
-      </c>
-      <c r="T3" s="2">
         <v>0.8</v>
       </c>
+      <c r="U3" s="3">
+        <v>40</v>
+      </c>
       <c r="V3" s="3">
-        <v>40</v>
-      </c>
-      <c r="W3" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/train/results.xlsx
+++ b/train/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Antoine/training_ML/transformer/train/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A77E63-6F5E-0545-8801-6478F3CBA55A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9871D01B-31ED-BF46-816B-3C4ED205F721}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{E5EF0A20-FAE9-8841-B3FF-3D9ABDE29D44}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Hardware</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>europarl</t>
+  </si>
+  <si>
+    <t>Macbook</t>
   </si>
 </sst>
 </file>
@@ -479,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DB81ED-E744-E848-B570-5B80FBCE336F}">
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -564,77 +567,90 @@
         <v>26</v>
       </c>
       <c r="B2" s="2">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="E2" s="2">
         <v>0.19</v>
       </c>
-      <c r="D2" s="2">
-        <v>0.91</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G2" s="2">
-        <f>480/B2</f>
-        <v>4.7999999999999996E-3</v>
+        <f>10/B2</f>
+        <v>0.1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I2" s="2">
         <v>1000000</v>
       </c>
       <c r="J2" s="2">
-        <v>32215</v>
+        <v>1013</v>
       </c>
       <c r="K2" s="2">
-        <v>12</v>
+        <v>0.06</v>
       </c>
       <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2">
         <v>2</v>
       </c>
-      <c r="M2" s="2">
-        <v>4</v>
-      </c>
       <c r="N2" s="2">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="O2" s="2">
-        <v>1024</v>
+        <v>128</v>
       </c>
       <c r="P2" s="2">
         <f>((B2*S2)/U2)*T2</f>
-        <v>450000</v>
+        <v>8000</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="R2" s="2">
-        <v>16000</v>
+        <v>1000</v>
       </c>
       <c r="S2" s="2">
         <v>0.8</v>
       </c>
       <c r="T2" s="2">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="U2" s="2">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="V2" s="2">
-        <v>160</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="3">
-        <v>1000000</v>
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.55000000000000004</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="G3" s="2">
+        <f>480/B3</f>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>13</v>
@@ -642,8 +658,14 @@
       <c r="I3" s="2">
         <v>1000000</v>
       </c>
-      <c r="L3" s="3">
-        <v>6</v>
+      <c r="J3" s="2">
+        <v>32215</v>
+      </c>
+      <c r="K3" s="2">
+        <v>12</v>
+      </c>
+      <c r="L3" s="2">
+        <v>2</v>
       </c>
       <c r="M3" s="2">
         <v>4</v>
@@ -654,6 +676,10 @@
       <c r="O3" s="2">
         <v>1024</v>
       </c>
+      <c r="P3" s="2">
+        <f>((B3*S3)/U3)*T3</f>
+        <v>450000</v>
+      </c>
       <c r="Q3" s="2" t="s">
         <v>21</v>
       </c>
@@ -663,14 +689,57 @@
       <c r="S3" s="2">
         <v>0.8</v>
       </c>
-      <c r="U3" s="3">
+      <c r="T3" s="2">
+        <v>450</v>
+      </c>
+      <c r="U3" s="2">
+        <v>80</v>
+      </c>
+      <c r="V3" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L4" s="3">
+        <v>6</v>
+      </c>
+      <c r="M4" s="2">
+        <v>4</v>
+      </c>
+      <c r="N4" s="2">
+        <v>256</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1024</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="2">
+        <v>16000</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="U4" s="3">
         <v>40</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V4" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -680,13 +749,14 @@
     <row r="11" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
+    <row r="14" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
     </row>
-    <row r="15" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
